--- a/xlsx/分工_intext.xlsx
+++ b/xlsx/分工_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA</t>
   </si>
   <si>
-    <t>個人</t>
+    <t>个人</t>
   </si>
   <si>
     <t>政策_政策_管理_分工</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>地區</t>
+    <t>地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%A8%8B%E7%A2%91</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>專業化</t>
+    <t>专业化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%96%99</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
+    <t>微观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6%E7%9B%B8%E5%85%B3%E4%B8%BB%E9%A2%98%E5%88%97%E8%A1%A8</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%93%81_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>物品 (經濟學)</t>
+    <t>物品 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E8%B4%B9%E7%89%A9%E5%93%81</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E7%89%A9%E5%93%81</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F%E6%A5%B5%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>約束極大化</t>
+    <t>约束极大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
+    <t>机会成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%B2%A1%E6%88%90%E6%9C%AC</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E6%9B%B2%E7%BA%BF</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excess_supply</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%9D%87%E8%A1%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>一般均衡理論</t>
+    <t>一般均衡理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%84%AA%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等優曲線</t>
+    <t>等优曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97%E7%B7%9A</t>
   </si>
   <si>
-    <t>預算線</t>
+    <t>预算线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Income%E2%80%93consumption_curve</t>
@@ -311,13 +311,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E5%8E%AD%E6%83%A1</t>
   </si>
   <si>
-    <t>風險厭惡</t>
+    <t>风险厌恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%9F%E5%A4%B1%E8%A7%84%E9%81%BF</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%8B%95%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>變動成本</t>
+    <t>变动成本</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Average_cost</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>邊際成本</t>
+    <t>边际成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -383,19 +383,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%94%A2%E9%87%8F%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等產量曲線</t>
+    <t>等产量曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economies_of_scope</t>
@@ -407,25 +407,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>消费者剩余</t>
+    <t>消费者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>生产者剩余</t>
+    <t>生产者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%B0%93%E6%8D%9F%E5%A4%B1</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
+    <t>市场失灵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%96%B9%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>賣方壟斷</t>
+    <t>卖方垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B0%E6%96%B9%E5%9E%84%E6%96%AD</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>寡頭壟斷</t>
+    <t>寡头垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A4%B4%E5%9E%84%E6%96%AD</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -515,19 +515,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算經濟學</t>
+    <t>计算经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
+    <t>决策论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計量經濟學</t>
+    <t>计量经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -539,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>家庭經濟學</t>
+    <t>家庭经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
+    <t>博弈论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理經濟學</t>
+    <t>数理经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microfoundations</t>
@@ -581,19 +581,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
+    <t>福利经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
